--- a/RA/RA Developer Documentation Archive/RA_新增事实_交易小票分析_2015-08-31.xlsx
+++ b/RA/RA Developer Documentation Archive/RA_新增事实_交易小票分析_2015-08-31.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,14 @@
   </si>
   <si>
     <t>会员含税交易金额（剔除6789）汇总值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实--交易小票分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只能查询到大类级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,13 +540,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
@@ -563,7 +571,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
@@ -588,7 +598,9 @@
       <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
@@ -616,7 +628,9 @@
       <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
